--- a/htdocs/App/Controllers/Traspasos/Salidas/Salida-8585DMY.xlsx
+++ b/htdocs/App/Controllers/Traspasos/Salidas/Salida-8585DMY.xlsx
@@ -52,7 +52,7 @@
     <t>Firma</t>
   </si>
   <si>
-    <t>16-11-2017</t>
+    <t>27-11-2017</t>
   </si>
 </sst>
 </file>
